--- a/3학년_선택과목배정_최종(궁극_파이널).xlsx
+++ b/3학년_선택과목배정_최종(궁극_파이널).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365gwe-my.sharepoint.com/personal/ngryun_o365gwe_net/Documents/2025/시간표편성작업/설악고등학교/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365gwe-my.sharepoint.com/personal/ngryun_o365gwe_net/Documents/2025/2학기_설악고_시간표작업/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{D5C3A846-D80C-4C48-BBAD-410324A534FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D09102B9-5CF1-4200-91E1-2DB07ED0B04F}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{D5C3A846-D80C-4C48-BBAD-410324A534FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADD78002-BACD-4002-8006-E23A304C2901}"/>
   <bookViews>
-    <workbookView xWindow="-530" yWindow="890" windowWidth="23620" windowHeight="13550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생배정결과(3학년_탐구)" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1681" uniqueCount="178">
   <si>
     <t>순번</t>
   </si>
@@ -528,6 +526,58 @@
   </si>
   <si>
     <t>야구부전학생</t>
+  </si>
+  <si>
+    <t>이서준</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1245,9 +1295,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1285,7 +1335,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1391,7 +1441,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1533,7 +1583,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1541,33 +1591,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AD128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="6.1640625" customWidth="1"/>
+    <col min="1" max="4" width="6.125" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.4140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1710,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1725,7 +1776,7 @@
       </c>
       <c r="AD2" s="6"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1791,7 +1842,7 @@
       <c r="AC3" s="6"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1857,7 +1908,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1923,7 +1974,7 @@
       <c r="AC5" s="5"/>
       <c r="AD5" s="6"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1989,7 +2040,7 @@
       <c r="AC6" s="5"/>
       <c r="AD6" s="6"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2055,7 +2106,7 @@
       </c>
       <c r="AD7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2121,7 +2172,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2187,7 +2238,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2253,7 +2304,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2319,7 +2370,7 @@
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2385,7 +2436,7 @@
       <c r="AC12" s="5"/>
       <c r="AD12" s="6"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2451,7 +2502,7 @@
       <c r="AC13" s="6"/>
       <c r="AD13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2517,7 +2568,7 @@
       <c r="AC14" s="5"/>
       <c r="AD14" s="6"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2583,7 +2634,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2649,7 +2700,7 @@
       </c>
       <c r="AD16" s="5"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2715,7 +2766,7 @@
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2781,7 +2832,7 @@
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2847,7 +2898,7 @@
       <c r="AC19" s="6"/>
       <c r="AD19" s="5"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2913,7 +2964,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2979,7 +3030,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3045,7 +3096,7 @@
       </c>
       <c r="AD22" s="5"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3111,7 +3162,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3177,7 +3228,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3243,7 +3294,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3309,7 +3360,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3375,7 +3426,7 @@
       </c>
       <c r="AD27" s="5"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3441,7 +3492,7 @@
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3507,7 +3558,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3573,7 +3624,7 @@
       </c>
       <c r="AD30" s="6"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3639,7 +3690,7 @@
       <c r="AC31" s="6"/>
       <c r="AD31" s="5"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3705,7 +3756,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3771,7 +3822,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3837,7 +3888,7 @@
       <c r="AC34" s="6"/>
       <c r="AD34" s="5"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3903,7 +3954,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3969,7 +4020,7 @@
       <c r="AC36" s="5"/>
       <c r="AD36" s="5"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4035,7 +4086,7 @@
       <c r="AC37" s="5"/>
       <c r="AD37" s="5"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4101,7 +4152,7 @@
       </c>
       <c r="AD38" s="6"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4167,7 +4218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -4233,7 +4284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -4299,7 +4350,7 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="5"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -4365,7 +4416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -4431,7 +4482,7 @@
       </c>
       <c r="AD43" s="6"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -4497,7 +4548,7 @@
       </c>
       <c r="AD44" s="5"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -4563,7 +4614,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -4629,7 +4680,7 @@
       <c r="AC46" s="5"/>
       <c r="AD46" s="6"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -4695,7 +4746,7 @@
       </c>
       <c r="AD47" s="5"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -4761,7 +4812,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -4827,7 +4878,7 @@
       </c>
       <c r="AD49" s="5"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -4893,7 +4944,7 @@
       <c r="AC50" s="6"/>
       <c r="AD50" s="5"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -4959,7 +5010,7 @@
       <c r="AC51" s="6"/>
       <c r="AD51" s="5"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -5025,75 +5076,73 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.45">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
       <c r="B53" s="4">
         <v>3</v>
       </c>
       <c r="C53" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" s="4">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>21</v>
+        <v>166</v>
       </c>
       <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H53" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I53" s="5"/>
       <c r="J53" s="6" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="5"/>
-      <c r="M53" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+        <v>169</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M53" s="5"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
       <c r="P53" s="6" t="s">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="R53" s="5"/>
       <c r="S53" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T53" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="T53" s="5"/>
       <c r="U53" s="5"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
       <c r="Z53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA53" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB53" s="6"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4">
         <v>3</v>
@@ -5102,64 +5151,64 @@
         <v>3</v>
       </c>
       <c r="D54" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="I54" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="J54" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K54" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N54" s="5"/>
-      <c r="O54" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="O54" s="5"/>
       <c r="P54" s="6" t="s">
         <v>23</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R54" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="R54" s="5"/>
       <c r="S54" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T54" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="T54" s="6"/>
       <c r="U54" s="5"/>
       <c r="V54" s="6"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y54" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="W54" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
       <c r="Z54" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="AA54" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB54" s="6"/>
       <c r="AC54" s="5"/>
-      <c r="AD54" s="6"/>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD54" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4">
         <v>3</v>
@@ -5168,32 +5217,32 @@
         <v>3</v>
       </c>
       <c r="D55" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K55" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
+      <c r="O55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="Q55" s="6" t="s">
         <v>27</v>
       </c>
@@ -5201,31 +5250,31 @@
         <v>25</v>
       </c>
       <c r="S55" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T55" s="6" t="s">
-        <v>160</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="T55" s="5"/>
       <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="5"/>
       <c r="X55" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y55" s="5"/>
+        <v>160</v>
+      </c>
+      <c r="Y55" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="Z55" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA55" s="6"/>
-      <c r="AB55" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="6" t="s">
         <v>161</v>
       </c>
       <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD55" s="6"/>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4">
         <v>3</v>
@@ -5234,64 +5283,64 @@
         <v>3</v>
       </c>
       <c r="D56" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F56" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I56" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L56" s="5"/>
       <c r="M56" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N56" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N56" s="5"/>
       <c r="O56" s="5"/>
-      <c r="P56" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R56" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="S56" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T56" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
-      <c r="W56" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z56" s="6"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="W56" s="6"/>
+      <c r="X56" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC56" s="5"/>
       <c r="AD56" s="5"/>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
         <v>3</v>
@@ -5300,21 +5349,25 @@
         <v>3</v>
       </c>
       <c r="D57" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
+      <c r="I57" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="K57" s="5"/>
       <c r="L57" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M57" s="6" t="s">
         <v>26</v>
@@ -5324,40 +5377,36 @@
       </c>
       <c r="O57" s="5"/>
       <c r="P57" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R57" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T57" s="6"/>
+      <c r="T57" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="U57" s="5"/>
-      <c r="V57" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="W57" s="5"/>
-      <c r="X57" s="6"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="X57" s="5"/>
       <c r="Y57" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z57" s="6"/>
       <c r="AA57" s="5"/>
-      <c r="AB57" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD57" s="5"/>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4">
         <v>3</v>
@@ -5366,38 +5415,38 @@
         <v>3</v>
       </c>
       <c r="D58" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K58" s="5"/>
       <c r="L58" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N58" s="5"/>
-      <c r="O58" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="5"/>
       <c r="P58" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="S58" s="6" t="s">
         <v>22</v>
       </c>
@@ -5406,24 +5455,24 @@
       <c r="V58" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="W58" s="6"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z58" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="W58" s="5"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z58" s="6"/>
       <c r="AA58" s="5"/>
-      <c r="AB58" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="5"/>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4">
         <v>3</v>
@@ -5432,64 +5481,64 @@
         <v>3</v>
       </c>
       <c r="D59" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>28</v>
+        <v>127</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
-      <c r="J59" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="J59" s="5"/>
       <c r="K59" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="L59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="5"/>
       <c r="O59" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q59" s="6" t="s">
         <v>20</v>
       </c>
       <c r="R59" s="5"/>
       <c r="S59" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T59" s="6" t="s">
-        <v>163</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="T59" s="6"/>
       <c r="U59" s="5"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="V59" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="W59" s="6"/>
       <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="6" t="s">
-        <v>162</v>
+      <c r="Y59" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z59" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="AA59" s="5"/>
-      <c r="AB59" s="6"/>
-      <c r="AC59" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="AB59" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC59" s="6"/>
       <c r="AD59" s="5"/>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4">
         <v>3</v>
@@ -5498,64 +5547,64 @@
         <v>3</v>
       </c>
       <c r="D60" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
+      <c r="J60" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K60" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M60" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
       <c r="N60" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R60" s="5"/>
       <c r="S60" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T60" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="V60" s="6"/>
+      <c r="W60" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
       <c r="Z60" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA60" s="5"/>
-      <c r="AB60" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="AB60" s="6"/>
       <c r="AC60" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AD60" s="5"/>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4">
         <v>3</v>
@@ -5564,64 +5613,64 @@
         <v>3</v>
       </c>
       <c r="D61" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M61" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O61" s="5"/>
+      <c r="O61" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="P61" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R61" s="5"/>
       <c r="S61" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="T61" s="5"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
       <c r="W61" s="6"/>
-      <c r="X61" s="5"/>
+      <c r="X61" s="6"/>
       <c r="Y61" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="Z61" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AC61" s="5"/>
+      <c r="AC61" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="AD61" s="5"/>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4">
         <v>3</v>
@@ -5630,64 +5679,64 @@
         <v>3</v>
       </c>
       <c r="D62" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>132</v>
+        <v>57</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
-      <c r="I62" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
       <c r="K62" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L62" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M62" s="6" t="s">
         <v>27</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
+      <c r="P62" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="Q62" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R62" s="5"/>
       <c r="S62" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="W62" s="6"/>
-      <c r="X62" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y62" s="6"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="Z62" s="6" t="s">
         <v>160</v>
       </c>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC62" s="5"/>
-      <c r="AD62" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD62" s="5"/>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4">
         <v>3</v>
@@ -5696,64 +5745,64 @@
         <v>3</v>
       </c>
       <c r="D63" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="I63" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J63" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L63" s="5"/>
       <c r="M63" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O63" s="5"/>
-      <c r="P63" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="P63" s="5"/>
       <c r="Q63" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R63" s="5"/>
       <c r="S63" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T63" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
-      <c r="Y63" s="5"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y63" s="6"/>
       <c r="Z63" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA63" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC63" s="6"/>
-      <c r="AD63" s="6"/>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4">
         <v>3</v>
@@ -5762,64 +5811,64 @@
         <v>3</v>
       </c>
       <c r="D64" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K64" s="5"/>
       <c r="L64" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N64" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R64" s="5"/>
       <c r="S64" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T64" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
       <c r="Z64" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA64" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="AA64" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AB64" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC64" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD64" s="5"/>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4">
         <v>3</v>
@@ -5828,64 +5877,64 @@
         <v>3</v>
       </c>
       <c r="D65" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
-      <c r="I65" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K65" s="5"/>
       <c r="L65" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M65" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q65" s="6" t="s">
         <v>27</v>
       </c>
       <c r="R65" s="5"/>
       <c r="S65" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T65" s="6"/>
-      <c r="U65" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="U65" s="5"/>
       <c r="V65" s="5"/>
       <c r="W65" s="5"/>
       <c r="X65" s="6"/>
-      <c r="Y65" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z65" s="5" t="s">
-        <v>161</v>
+      <c r="Y65" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z65" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="AA65" s="5"/>
       <c r="AB65" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="AC65" s="5"/>
+      <c r="AC65" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AD65" s="5"/>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4">
         <v>3</v>
@@ -5894,52 +5943,52 @@
         <v>3</v>
       </c>
       <c r="D66" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L66" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M66" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N66" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
+      <c r="P66" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="Q66" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="R66" s="5"/>
       <c r="S66" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T66" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U66" s="5"/>
-      <c r="V66" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="T66" s="6"/>
+      <c r="U66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V66" s="5"/>
       <c r="W66" s="5"/>
-      <c r="X66" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="6" t="s">
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z66" s="5" t="s">
         <v>161</v>
       </c>
       <c r="AA66" s="5"/>
@@ -5947,11 +5996,11 @@
         <v>162</v>
       </c>
       <c r="AC66" s="5"/>
-      <c r="AD66" s="6"/>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD66" s="5"/>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
@@ -5960,64 +6009,64 @@
         <v>3</v>
       </c>
       <c r="D67" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
+      <c r="I67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K67" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L67" s="5"/>
       <c r="M67" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="O67" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="O67" s="5"/>
+      <c r="P67" s="5"/>
       <c r="Q67" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R67" s="5"/>
       <c r="S67" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T67" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="U67" s="5"/>
-      <c r="V67" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="W67" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="5" t="s">
-        <v>163</v>
+      <c r="V67" s="6"/>
+      <c r="W67" s="5"/>
+      <c r="X67" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y67" s="5"/>
+      <c r="Z67" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="AA67" s="5"/>
-      <c r="AB67" s="6"/>
-      <c r="AC67" s="6"/>
-      <c r="AD67" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB67" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC67" s="5"/>
+      <c r="AD67" s="6"/>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4">
         <v>3</v>
@@ -6026,64 +6075,64 @@
         <v>3</v>
       </c>
       <c r="D68" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
-      <c r="J68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L68" s="5"/>
       <c r="M68" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q68" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R68" s="5"/>
       <c r="S68" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T68" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="T68" s="5"/>
       <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
+      <c r="V68" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="X68" s="5"/>
-      <c r="Y68" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="Y68" s="6"/>
       <c r="Z68" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA68" s="5"/>
-      <c r="AB68" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC68" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD68" s="5"/>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4">
         <v>3</v>
@@ -6092,64 +6141,64 @@
         <v>3</v>
       </c>
       <c r="D69" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>22</v>
       </c>
       <c r="G69" s="5"/>
-      <c r="H69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N69" s="6" t="s">
         <v>20</v>
       </c>
       <c r="O69" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q69" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R69" s="5"/>
       <c r="S69" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T69" s="6"/>
       <c r="U69" s="5"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="V69" s="5"/>
+      <c r="W69" s="5"/>
       <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="6" t="s">
+      <c r="Y69" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z69" s="5" t="s">
         <v>160</v>
       </c>
       <c r="AA69" s="5"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD69" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB69" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC69" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD69" s="5"/>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4">
         <v>3</v>
@@ -6158,64 +6207,64 @@
         <v>3</v>
       </c>
       <c r="D70" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F70" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
+      <c r="H70" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I70" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="J70" s="5"/>
-      <c r="K70" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
       <c r="M70" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O70" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="O70" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="P70" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q70" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T70" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="T70" s="6"/>
       <c r="U70" s="5"/>
       <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
+      <c r="W70" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="X70" s="5"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA70" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB70" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="6"/>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD70" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4">
         <v>3</v>
@@ -6224,64 +6273,64 @@
         <v>3</v>
       </c>
       <c r="D71" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="L71" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O71" s="5"/>
       <c r="P71" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q71" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R71" s="5"/>
       <c r="S71" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T71" s="6" t="s">
-        <v>163</v>
+        <v>20</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="U71" s="5"/>
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
-      <c r="X71" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA71" s="5"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA71" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AB71" s="5" t="s">
         <v>162</v>
       </c>
       <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD71" s="6"/>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4">
         <v>3</v>
@@ -6290,64 +6339,64 @@
         <v>3</v>
       </c>
       <c r="D72" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="I72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="L72" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="M72" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O72" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="O72" s="5"/>
       <c r="P72" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q72" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R72" s="5"/>
       <c r="S72" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T72" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="U72" s="5"/>
       <c r="V72" s="6"/>
-      <c r="W72" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="X72" s="5"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="Y72" s="5"/>
       <c r="Z72" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AA72" s="5"/>
-      <c r="AB72" s="6"/>
-      <c r="AC72" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="AB72" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC72" s="5"/>
       <c r="AD72" s="5"/>
     </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4">
         <v>3</v>
@@ -6356,64 +6405,64 @@
         <v>3</v>
       </c>
       <c r="D73" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
-      <c r="I73" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="5"/>
-      <c r="K73" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
       <c r="M73" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N73" s="5"/>
+      <c r="N73" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O73" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P73" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q73" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R73" s="5"/>
       <c r="S73" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T73" s="6"/>
-      <c r="U73" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V73" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="T73" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U73" s="5"/>
+      <c r="V73" s="6"/>
       <c r="W73" s="5" t="s">
         <v>163</v>
       </c>
       <c r="X73" s="5"/>
-      <c r="Y73" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y73" s="5"/>
       <c r="Z73" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA73" s="5"/>
       <c r="AB73" s="6"/>
-      <c r="AC73" s="6"/>
+      <c r="AC73" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AD73" s="5"/>
     </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4">
         <v>3</v>
@@ -6422,33 +6471,33 @@
         <v>3</v>
       </c>
       <c r="D74" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="I74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J74" s="5"/>
       <c r="K74" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" s="5"/>
       <c r="O74" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q74" s="6" t="s">
         <v>25</v>
@@ -6457,29 +6506,29 @@
       <c r="S74" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T74" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="T74" s="6"/>
+      <c r="U74" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V74" s="5"/>
       <c r="W74" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
+      <c r="Y74" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="Z74" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA74" s="5"/>
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="5"/>
     </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4">
         <v>3</v>
@@ -6488,33 +6537,33 @@
         <v>3</v>
       </c>
       <c r="D75" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
+      <c r="J75" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K75" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L75" s="5"/>
-      <c r="M75" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="M75" s="5"/>
       <c r="N75" s="6" t="s">
         <v>24</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P75" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q75" s="6" t="s">
         <v>25</v>
@@ -6526,26 +6575,26 @@
       <c r="T75" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="U75" s="6"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="6"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="W75" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="X75" s="5"/>
-      <c r="Y75" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z75" s="6"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="AA75" s="5"/>
-      <c r="AB75" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC75" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
       <c r="AD75" s="5"/>
     </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4">
         <v>3</v>
@@ -6554,64 +6603,64 @@
         <v>3</v>
       </c>
       <c r="D76" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
-      <c r="I76" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
       <c r="K76" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L76" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L76" s="5"/>
       <c r="M76" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="N76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="O76" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="P76" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="6"/>
+      <c r="S76" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T76" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U76" s="6"/>
+      <c r="V76" s="5"/>
       <c r="W76" s="6"/>
       <c r="X76" s="5"/>
-      <c r="Y76" s="6" t="s">
+      <c r="Y76" s="5" t="s">
         <v>160</v>
       </c>
       <c r="Z76" s="6"/>
-      <c r="AA76" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="AA76" s="5"/>
       <c r="AB76" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC76" s="5"/>
-      <c r="AD76" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="AC76" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD76" s="5"/>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4">
         <v>3</v>
@@ -6620,130 +6669,130 @@
         <v>3</v>
       </c>
       <c r="D77" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
+      <c r="I77" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="K77" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M77" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="N77" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q77" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R77" s="5"/>
-      <c r="S77" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T77" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="U77" s="6"/>
-      <c r="V77" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="S77" s="5"/>
+      <c r="T77" s="5"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="6"/>
       <c r="W77" s="6"/>
       <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA77" s="5"/>
+      <c r="Y77" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AB77" s="5" t="s">
         <v>163</v>
       </c>
       <c r="AC77" s="5"/>
-      <c r="AD77" s="5"/>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD77" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4">
         <v>3</v>
       </c>
       <c r="C78" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F78" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
-      <c r="J78" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="J78" s="5"/>
       <c r="K78" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M78" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N78" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O78" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O78" s="5"/>
       <c r="P78" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q78" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="Q78" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="R78" s="5"/>
       <c r="S78" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T78" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U78" s="5"/>
+      <c r="T78" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U78" s="6"/>
       <c r="V78" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="W78" s="5"/>
+      <c r="W78" s="6"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
       <c r="Z78" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA78" s="5"/>
-      <c r="AB78" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="6"/>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB78" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4">
         <v>3</v>
@@ -6752,64 +6801,64 @@
         <v>4</v>
       </c>
       <c r="D79" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K79" s="6" t="s">
         <v>20</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M79" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N79" s="6" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P79" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="T79" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="U79" s="5"/>
-      <c r="V79" s="5"/>
+      <c r="V79" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="W79" s="5"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5"/>
       <c r="Z79" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA79" s="5" t="s">
-        <v>161</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="AA79" s="5"/>
       <c r="AB79" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC79" s="5"/>
-      <c r="AD79" s="5"/>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="AC79" s="6"/>
+      <c r="AD79" s="6"/>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4">
         <v>3</v>
@@ -6818,10 +6867,10 @@
         <v>4</v>
       </c>
       <c r="D80" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>25</v>
@@ -6830,52 +6879,52 @@
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
       <c r="J80" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="K80" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L80" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N80" s="5"/>
+      <c r="N80" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O80" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P80" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="Q80" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
-      <c r="S80" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T80" s="5"/>
-      <c r="U80" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="S80" s="5"/>
+      <c r="T80" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="U80" s="5"/>
       <c r="V80" s="5"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="5"/>
+      <c r="W80" s="5"/>
+      <c r="X80" s="6"/>
       <c r="Y80" s="6"/>
       <c r="Z80" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AA80" s="5"/>
-      <c r="AB80" s="5" t="s">
-        <v>161</v>
+      <c r="AA80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB80" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="AC80" s="5"/>
-      <c r="AD80" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD80" s="5"/>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4">
         <v>3</v>
@@ -6884,64 +6933,64 @@
         <v>4</v>
       </c>
       <c r="D81" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G81" s="5"/>
-      <c r="H81" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" s="5"/>
-      <c r="M81" s="5"/>
-      <c r="N81" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N81" s="5"/>
       <c r="O81" s="6" t="s">
         <v>26</v>
       </c>
       <c r="P81" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q81" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q81" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R81" s="5"/>
-      <c r="S81" s="5"/>
+      <c r="S81" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="T81" s="5"/>
-      <c r="U81" s="5"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="U81" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="V81" s="5"/>
+      <c r="W81" s="6"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="6"/>
-      <c r="Z81" s="5" t="s">
+      <c r="Z81" s="6" t="s">
         <v>163</v>
       </c>
       <c r="AA81" s="5"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD81" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB81" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4">
         <v>3</v>
@@ -6950,64 +6999,64 @@
         <v>4</v>
       </c>
       <c r="D82" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
+      <c r="H82" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I82" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M82" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="J82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
       <c r="N82" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O82" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="P82" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-      <c r="S82" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T82" s="6"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
       <c r="U82" s="5"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="X82" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y82" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z82" s="6" t="s">
-        <v>162</v>
+      <c r="V82" s="6"/>
+      <c r="W82" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X82" s="5"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="AA82" s="5"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="5"/>
-      <c r="AD82" s="5"/>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD82" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4">
         <v>3</v>
@@ -7016,64 +7065,64 @@
         <v>4</v>
       </c>
       <c r="D83" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F83" s="5"/>
+        <v>84</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J83" s="5"/>
-      <c r="K83" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="K83" s="5"/>
       <c r="L83" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M83" s="6" t="s">
         <v>27</v>
       </c>
       <c r="N83" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P83" s="5"/>
       <c r="Q83" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R83" s="5"/>
       <c r="S83" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T83" s="5" t="s">
-        <v>163</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T83" s="6"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
-      <c r="W83" s="6"/>
+      <c r="W83" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="X83" s="6" t="s">
         <v>160</v>
       </c>
       <c r="Y83" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z83" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="Z83" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="AA83" s="5"/>
-      <c r="AB83" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
-      <c r="AD83" s="6"/>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD83" s="5"/>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4">
         <v>3</v>
@@ -7082,64 +7131,64 @@
         <v>4</v>
       </c>
       <c r="D84" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="K84" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L84" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M84" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="N84" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O84" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P84" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="O84" s="5"/>
+      <c r="P84" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="Q84" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="R84" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="R84" s="5"/>
       <c r="S84" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T84" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="U84" s="5"/>
-      <c r="V84" s="6"/>
+      <c r="V84" s="5"/>
       <c r="W84" s="6"/>
-      <c r="X84" s="5" t="s">
+      <c r="X84" s="6" t="s">
         <v>160</v>
       </c>
       <c r="Y84" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z84" s="6" t="s">
-        <v>161</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="Z84" s="6"/>
       <c r="AA84" s="5"/>
       <c r="AB84" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC84" s="5"/>
       <c r="AD84" s="6"/>
     </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4">
         <v>3</v>
@@ -7148,64 +7197,64 @@
         <v>4</v>
       </c>
       <c r="D85" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J85" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
       <c r="L85" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M85" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O85" s="5"/>
-      <c r="P85" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R85" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S85" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="T85" s="5"/>
       <c r="U85" s="5"/>
-      <c r="V85" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="W85" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="X85" s="5"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="5" t="s">
-        <v>163</v>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y85" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z85" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="AA85" s="5"/>
-      <c r="AB85" s="6"/>
-      <c r="AC85" s="6"/>
-      <c r="AD85" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB85" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="6"/>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4">
         <v>3</v>
@@ -7214,64 +7263,64 @@
         <v>4</v>
       </c>
       <c r="D86" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="F86" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G86" s="5"/>
-      <c r="H86" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="H86" s="5"/>
       <c r="I86" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J86" s="6" t="s">
         <v>27</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L86" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="L86" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M86" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
+      <c r="P86" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="Q86" s="5"/>
-      <c r="R86" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S86" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
       <c r="T86" s="5"/>
       <c r="U86" s="5"/>
-      <c r="V86" s="5"/>
-      <c r="W86" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="X86" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y86" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z86" s="6" t="s">
-        <v>161</v>
+      <c r="V86" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="W86" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X86" s="5"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="AA86" s="5"/>
-      <c r="AB86" s="5"/>
-      <c r="AC86" s="5"/>
-      <c r="AD86" s="6"/>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
+      <c r="AD86" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4">
         <v>3</v>
@@ -7280,64 +7329,64 @@
         <v>4</v>
       </c>
       <c r="D87" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="F87" s="5"/>
-      <c r="G87" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="G87" s="5"/>
       <c r="H87" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
+      <c r="I87" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K87" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
+      <c r="M87" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="N87" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O87" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P87" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q87" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R87" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="S87" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T87" s="5"/>
       <c r="U87" s="5"/>
       <c r="V87" s="5"/>
-      <c r="W87" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="X87" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y87" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z87" s="6"/>
+      <c r="W87" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="X87" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y87" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z87" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="AA87" s="5"/>
-      <c r="AB87" s="6"/>
-      <c r="AC87" s="6"/>
-      <c r="AD87" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB87" s="5"/>
+      <c r="AC87" s="5"/>
+      <c r="AD87" s="6"/>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4">
         <v>3</v>
@@ -7346,64 +7395,64 @@
         <v>4</v>
       </c>
       <c r="D88" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M88" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
       <c r="N88" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
+      <c r="O88" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P88" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="Q88" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
+      <c r="S88" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="T88" s="5"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="W88" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="X88" s="5"/>
-      <c r="Y88" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z88" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="U88" s="5"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="X88" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y88" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z88" s="6"/>
       <c r="AA88" s="5"/>
-      <c r="AB88" s="5"/>
-      <c r="AC88" s="5"/>
-      <c r="AD88" s="6"/>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
+      <c r="AD88" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4">
         <v>3</v>
@@ -7412,64 +7461,64 @@
         <v>4</v>
       </c>
       <c r="D89" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="I89" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="J89" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M89" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N89" s="6" t="s">
         <v>25</v>
       </c>
       <c r="O89" s="5"/>
-      <c r="P89" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="P89" s="5"/>
       <c r="Q89" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R89" s="5"/>
       <c r="S89" s="5"/>
       <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
+      <c r="U89" s="6"/>
       <c r="V89" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="W89" s="5" t="s">
+      <c r="W89" s="6" t="s">
         <v>160</v>
       </c>
       <c r="X89" s="5"/>
-      <c r="Y89" s="6"/>
+      <c r="Y89" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="Z89" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA89" s="6"/>
-      <c r="AB89" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
       <c r="AC89" s="5"/>
-      <c r="AD89" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD89" s="6"/>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4">
         <v>3</v>
@@ -7478,64 +7527,64 @@
         <v>4</v>
       </c>
       <c r="D90" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L90" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M90" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O90" s="5"/>
       <c r="P90" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q90" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R90" s="5"/>
-      <c r="S90" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T90" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
       <c r="U90" s="5"/>
-      <c r="V90" s="5"/>
+      <c r="V90" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="W90" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X90" s="5"/>
       <c r="Y90" s="6"/>
-      <c r="Z90" s="5" t="s">
-        <v>160</v>
+      <c r="Z90" s="6" t="s">
+        <v>163</v>
       </c>
       <c r="AA90" s="6"/>
       <c r="AB90" s="6"/>
-      <c r="AC90" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD90" s="6"/>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4">
         <v>3</v>
@@ -7544,64 +7593,64 @@
         <v>4</v>
       </c>
       <c r="D91" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F91" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
-      <c r="I91" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I91" s="5"/>
       <c r="J91" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K91" s="5"/>
-      <c r="L91" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="K91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="5"/>
       <c r="M91" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N91" s="6" t="s">
         <v>20</v>
       </c>
       <c r="O91" s="5"/>
       <c r="P91" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q91" s="6" t="s">
         <v>27</v>
       </c>
       <c r="R91" s="5"/>
       <c r="S91" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T91" s="5"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="W91" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="T91" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="U91" s="5"/>
+      <c r="V91" s="5"/>
+      <c r="W91" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="X91" s="5"/>
       <c r="Y91" s="6"/>
-      <c r="Z91" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA91" s="5"/>
-      <c r="AB91" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC91" s="5"/>
-      <c r="AD91" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="Z91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD91" s="6"/>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4">
         <v>3</v>
@@ -7610,10 +7659,10 @@
         <v>4</v>
       </c>
       <c r="D92" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
@@ -7636,38 +7685,38 @@
       </c>
       <c r="O92" s="5"/>
       <c r="P92" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q92" s="6" t="s">
         <v>27</v>
       </c>
       <c r="R92" s="5"/>
       <c r="S92" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T92" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="U92" s="5"/>
-      <c r="V92" s="5"/>
-      <c r="W92" s="5" t="s">
-        <v>163</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="T92" s="5"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="W92" s="6"/>
       <c r="X92" s="5"/>
-      <c r="Y92" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z92" s="6"/>
-      <c r="AA92" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA92" s="5"/>
+      <c r="AB92" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="AC92" s="5"/>
-      <c r="AD92" s="5"/>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD92" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="4">
         <v>3</v>
@@ -7676,64 +7725,64 @@
         <v>4</v>
       </c>
       <c r="D93" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" s="5"/>
+        <v>138</v>
+      </c>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="J93" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="K93" s="5"/>
       <c r="L93" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M93" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="N93" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S93" s="5"/>
+      <c r="P93" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q93" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R93" s="5"/>
+      <c r="S93" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="T93" s="6" t="s">
         <v>160</v>
       </c>
       <c r="U93" s="5"/>
       <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
+      <c r="W93" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="X93" s="5"/>
-      <c r="Y93" s="6"/>
-      <c r="Z93" s="5" t="s">
-        <v>163</v>
-      </c>
+      <c r="Y93" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z93" s="6"/>
       <c r="AA93" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AB93" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="AB93" s="6"/>
       <c r="AC93" s="5"/>
       <c r="AD93" s="5"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="4">
         <v>3</v>
@@ -7742,64 +7791,64 @@
         <v>4</v>
       </c>
       <c r="D94" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="5"/>
+      <c r="J94" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K94" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L94" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M94" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M94" s="5"/>
       <c r="N94" s="6" t="s">
         <v>24</v>
       </c>
       <c r="O94" s="5"/>
-      <c r="P94" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q94" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="R94" s="5"/>
-      <c r="S94" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T94" s="5" t="s">
-        <v>163</v>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S94" s="5"/>
+      <c r="T94" s="6" t="s">
+        <v>160</v>
       </c>
       <c r="U94" s="5"/>
       <c r="V94" s="5"/>
-      <c r="W94" s="6"/>
-      <c r="X94" s="6"/>
-      <c r="Y94" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z94" s="6"/>
-      <c r="AA94" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB94" s="5" t="s">
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA94" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB94" s="6" t="s">
         <v>162</v>
       </c>
       <c r="AC94" s="5"/>
       <c r="AD94" s="5"/>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4">
         <v>3</v>
@@ -7808,10 +7857,10 @@
         <v>4</v>
       </c>
       <c r="D95" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>20</v>
@@ -7819,53 +7868,53 @@
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L95" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="M95" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N95" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
+      <c r="P95" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="Q95" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R95" s="5"/>
       <c r="S95" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T95" s="5" t="s">
         <v>163</v>
       </c>
       <c r="U95" s="5"/>
       <c r="V95" s="5"/>
-      <c r="W95" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="X95" s="5"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
       <c r="Y95" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Z95" s="6"/>
-      <c r="AA95" s="5"/>
-      <c r="AB95" s="5"/>
-      <c r="AC95" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="AA95" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB95" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC95" s="5"/>
       <c r="AD95" s="5"/>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4">
         <v>3</v>
@@ -7874,64 +7923,64 @@
         <v>4</v>
       </c>
       <c r="D96" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
+      <c r="I96" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="J96" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="K96" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L96" s="5"/>
       <c r="M96" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N96" s="5"/>
-      <c r="O96" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P96" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="N96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
       <c r="Q96" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R96" s="5"/>
       <c r="S96" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T96" s="6" t="s">
-        <v>160</v>
+        <v>26</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="U96" s="5"/>
-      <c r="V96" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="V96" s="5"/>
       <c r="W96" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="X96" s="5"/>
-      <c r="Y96" s="5"/>
-      <c r="Z96" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="Y96" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z96" s="6"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
-      <c r="AC96" s="6"/>
+      <c r="AC96" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="AD96" s="5"/>
     </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4">
         <v>3</v>
@@ -7940,64 +7989,64 @@
         <v>4</v>
       </c>
       <c r="D97" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
       <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+      <c r="J97" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="K97" s="5"/>
       <c r="L97" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M97" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N97" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N97" s="5"/>
       <c r="O97" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P97" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q97" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="5"/>
+      <c r="S97" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T97" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U97" s="5"/>
+      <c r="V97" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="W97" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="X97" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y97" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z97" s="6"/>
+      <c r="X97" s="5"/>
+      <c r="Y97" s="5"/>
+      <c r="Z97" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="AA97" s="5"/>
       <c r="AB97" s="5"/>
-      <c r="AC97" s="5"/>
-      <c r="AD97" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AC97" s="6"/>
+      <c r="AD97" s="5"/>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4">
         <v>3</v>
@@ -8006,64 +8055,64 @@
         <v>4</v>
       </c>
       <c r="D98" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I98" s="5"/>
-      <c r="J98" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="J98" s="5"/>
       <c r="K98" s="5"/>
       <c r="L98" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M98" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="N98" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q98" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R98" s="5"/>
-      <c r="S98" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="S98" s="5"/>
       <c r="T98" s="5"/>
-      <c r="U98" s="5"/>
+      <c r="U98" s="6"/>
       <c r="V98" s="5"/>
-      <c r="W98" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="X98" s="5"/>
+      <c r="W98" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="X98" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="Y98" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z98" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA98" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB98" s="6"/>
+        <v>162</v>
+      </c>
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="5"/>
+      <c r="AB98" s="5"/>
       <c r="AC98" s="5"/>
-      <c r="AD98" s="6"/>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD98" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4">
         <v>3</v>
@@ -8072,64 +8121,64 @@
         <v>4</v>
       </c>
       <c r="D99" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G99" s="5"/>
-      <c r="H99" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
       <c r="J99" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K99" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="K99" s="5"/>
       <c r="L99" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="M99" s="5"/>
+      <c r="N99" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P99" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q99" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="Q99" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
+      <c r="S99" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="T99" s="5"/>
       <c r="U99" s="5"/>
       <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
+      <c r="W99" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="X99" s="5"/>
       <c r="Y99" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="Z99" s="6"/>
-      <c r="AA99" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB99" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC99" s="6"/>
-      <c r="AD99" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="Z99" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA99" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="5"/>
+      <c r="AD99" s="6"/>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4">
         <v>3</v>
@@ -8138,64 +8187,64 @@
         <v>4</v>
       </c>
       <c r="D100" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
+      <c r="H100" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="J100" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="K100" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M100" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O100" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
       <c r="P100" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q100" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
-      <c r="S100" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="S100" s="5"/>
       <c r="T100" s="5"/>
       <c r="U100" s="5"/>
       <c r="V100" s="5"/>
       <c r="W100" s="5"/>
-      <c r="X100" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA100" s="5"/>
+      <c r="X100" s="5"/>
+      <c r="Y100" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AB100" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AC100" s="6"/>
       <c r="AD100" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="4">
         <v>3</v>
@@ -8204,64 +8253,64 @@
         <v>4</v>
       </c>
       <c r="D101" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
-      <c r="I101" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I101" s="5"/>
       <c r="J101" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="N101" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O101" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="O101" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="P101" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="Q101" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R101" s="5"/>
       <c r="S101" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
       <c r="V101" s="5"/>
-      <c r="W101" s="6"/>
-      <c r="X101" s="5"/>
-      <c r="Y101" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y101" s="6"/>
       <c r="Z101" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA101" s="6"/>
-      <c r="AB101" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC101" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD101" s="6"/>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC101" s="6"/>
+      <c r="AD101" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4">
         <v>3</v>
@@ -8270,31 +8319,31 @@
         <v>4</v>
       </c>
       <c r="D102" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="I102" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="J102" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L102" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="L102" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="M102" s="5"/>
       <c r="N102" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O102" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="O102" s="5"/>
       <c r="P102" s="6" t="s">
         <v>27</v>
       </c>
@@ -8308,92 +8357,92 @@
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
-      <c r="W102" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="X102" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y102" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z102" s="5"/>
-      <c r="AA102" s="5"/>
-      <c r="AB102" s="5"/>
-      <c r="AC102" s="5"/>
-      <c r="AD102" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="W102" s="6"/>
+      <c r="X102" s="5"/>
+      <c r="Y102" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z102" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC102" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD102" s="6"/>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4">
         <v>3</v>
       </c>
       <c r="C103" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E103" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F103" s="5"/>
+        <v>145</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
-      <c r="I103" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="I103" s="5"/>
       <c r="J103" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K103" s="5"/>
-      <c r="L103" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="M103" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="K103" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
       <c r="N103" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O103" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="O103" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P103" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q103" s="6" t="s">
         <v>22</v>
       </c>
       <c r="R103" s="5"/>
       <c r="S103" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T103" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="U103" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
       <c r="V103" s="5"/>
-      <c r="W103" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="X103" s="5"/>
-      <c r="Y103" s="5"/>
-      <c r="Z103" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA103" s="6"/>
-      <c r="AB103" s="6"/>
+      <c r="W103" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="X103" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y103" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z103" s="5"/>
+      <c r="AA103" s="5"/>
+      <c r="AB103" s="5"/>
       <c r="AC103" s="5"/>
-      <c r="AD103" s="5"/>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD103" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="4">
         <v>3</v>
@@ -8402,64 +8451,64 @@
         <v>5</v>
       </c>
       <c r="D104" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J104" s="5"/>
-      <c r="K104" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="J104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K104" s="5"/>
       <c r="L104" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M104" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
+      <c r="P104" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="Q104" s="6" t="s">
         <v>22</v>
       </c>
       <c r="R104" s="5"/>
       <c r="S104" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="T104" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U104" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V104" s="5"/>
       <c r="W104" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="X104" s="5"/>
-      <c r="Y104" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y104" s="5"/>
       <c r="Z104" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA104" s="5"/>
+        <v>162</v>
+      </c>
+      <c r="AA104" s="6"/>
       <c r="AB104" s="6"/>
-      <c r="AC104" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
     </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="4">
         <v>3</v>
@@ -8468,13 +8517,13 @@
         <v>5</v>
       </c>
       <c r="D105" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
@@ -8482,50 +8531,50 @@
         <v>21</v>
       </c>
       <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="K105" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="L105" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M105" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O105" s="5"/>
-      <c r="P105" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="P105" s="5"/>
       <c r="Q105" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R105" s="5"/>
       <c r="S105" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="T105" s="5"/>
       <c r="U105" s="5"/>
       <c r="V105" s="6"/>
-      <c r="W105" s="5"/>
+      <c r="W105" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="X105" s="5"/>
-      <c r="Y105" s="6"/>
+      <c r="Y105" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="Z105" s="6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AA105" s="5"/>
-      <c r="AB105" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="AB105" s="6"/>
       <c r="AC105" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AD105" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD105" s="5"/>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="4">
         <v>3</v>
@@ -8534,13 +8583,13 @@
         <v>5</v>
       </c>
       <c r="D106" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -8550,48 +8599,48 @@
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N106" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O106" s="5"/>
       <c r="P106" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q106" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R106" s="5"/>
       <c r="S106" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T106" s="5"/>
       <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
+      <c r="V106" s="6"/>
       <c r="W106" s="5"/>
       <c r="X106" s="5"/>
-      <c r="Y106" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="Y106" s="6"/>
       <c r="Z106" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA106" s="5"/>
       <c r="AB106" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AC106" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD106" s="5"/>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AC106" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD106" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="4">
         <v>3</v>
@@ -8600,64 +8649,64 @@
         <v>5</v>
       </c>
       <c r="D107" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F107" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J107" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K107" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
       <c r="L107" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N107" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O107" s="5"/>
       <c r="P107" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q107" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="S107" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T107" s="5"/>
       <c r="U107" s="5"/>
       <c r="V107" s="5"/>
-      <c r="W107" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="W107" s="5"/>
       <c r="X107" s="5"/>
-      <c r="Y107" s="5"/>
+      <c r="Y107" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="Z107" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AA107" s="6"/>
-      <c r="AB107" s="6"/>
-      <c r="AC107" s="5" t="s">
-        <v>162</v>
+        <v>162</v>
+      </c>
+      <c r="AA107" s="5"/>
+      <c r="AB107" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC107" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="AD107" s="5"/>
     </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4">
         <v>3</v>
@@ -8666,64 +8715,64 @@
         <v>5</v>
       </c>
       <c r="D108" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
+      <c r="I108" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J108" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K108" s="5"/>
-      <c r="L108" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="K108" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L108" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="M108" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O108" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O108" s="5"/>
       <c r="P108" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q108" s="6" t="s">
         <v>25</v>
       </c>
       <c r="R108" s="5"/>
-      <c r="S108" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="S108" s="5"/>
+      <c r="T108" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U108" s="5"/>
       <c r="V108" s="5"/>
-      <c r="W108" s="6" t="s">
-        <v>163</v>
+      <c r="W108" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="X108" s="5"/>
-      <c r="Y108" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="Y108" s="5"/>
       <c r="Z108" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AA108" s="5"/>
-      <c r="AB108" s="5"/>
-      <c r="AC108" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="AD108" s="5"/>
     </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4">
         <v>3</v>
@@ -8732,64 +8781,64 @@
         <v>5</v>
       </c>
       <c r="D109" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K109" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="5"/>
+      <c r="M109" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="N109" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O109" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P109" s="6" t="s">
         <v>24</v>
       </c>
       <c r="Q109" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="R109" s="5"/>
       <c r="S109" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T109" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U109" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="V109" s="5"/>
-      <c r="W109" s="6"/>
-      <c r="X109" s="6"/>
-      <c r="Y109" s="6"/>
+      <c r="W109" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="Z109" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA109" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB109" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC109" s="5"/>
+        <v>161</v>
+      </c>
+      <c r="AA109" s="5"/>
+      <c r="AB109" s="5"/>
+      <c r="AC109" s="6"/>
       <c r="AD109" s="5"/>
     </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="4">
         <v>3</v>
@@ -8798,64 +8847,64 @@
         <v>5</v>
       </c>
       <c r="D110" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
-      <c r="L110" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M110" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="I110" s="5"/>
+      <c r="J110" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
       <c r="N110" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O110" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P110" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q110" s="6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="R110" s="5"/>
       <c r="S110" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>163</v>
       </c>
       <c r="U110" s="5"/>
       <c r="V110" s="5"/>
-      <c r="W110" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="X110" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y110" s="5"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6"/>
       <c r="Z110" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA110" s="5"/>
-      <c r="AB110" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="AA110" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB110" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="AC110" s="5"/>
-      <c r="AD110" s="6"/>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD110" s="5"/>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4">
         <v>3</v>
@@ -8864,10 +8913,10 @@
         <v>5</v>
       </c>
       <c r="D111" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>25</v>
@@ -8877,51 +8926,51 @@
       <c r="I111" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J111" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K111" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
       <c r="L111" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M111" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O111" s="5"/>
       <c r="P111" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q111" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="Q111" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="6" t="s">
-        <v>160</v>
+      <c r="S111" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="T111" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="U111" s="5"/>
       <c r="V111" s="5"/>
       <c r="W111" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="X111" s="6"/>
+        <v>161</v>
+      </c>
+      <c r="X111" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="Y111" s="5"/>
       <c r="Z111" s="6" t="s">
         <v>162</v>
       </c>
       <c r="AA111" s="5"/>
       <c r="AB111" s="6"/>
-      <c r="AC111" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD111" s="5"/>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AC111" s="5"/>
+      <c r="AD111" s="6"/>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4">
         <v>3</v>
@@ -8930,64 +8979,64 @@
         <v>5</v>
       </c>
       <c r="D112" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="K112" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="M112" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O112" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="O112" s="5"/>
       <c r="P112" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
-      <c r="S112" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T112" s="6"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="U112" s="5"/>
       <c r="V112" s="5"/>
-      <c r="W112" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="W112" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="X112" s="6"/>
+      <c r="Y112" s="5"/>
       <c r="Z112" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA112" s="5"/>
-      <c r="AB112" s="5"/>
-      <c r="AC112" s="6" t="s">
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="5" t="s">
         <v>161</v>
       </c>
       <c r="AD112" s="5"/>
     </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4">
         <v>3</v>
@@ -8996,10 +9045,10 @@
         <v>5</v>
       </c>
       <c r="D113" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>20</v>
@@ -9007,53 +9056,53 @@
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="L113" s="5"/>
       <c r="M113" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N113" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="O113" s="5"/>
+      <c r="O113" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="P113" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="T113" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="U113" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V113" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="T113" s="6"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
       <c r="W113" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X113" s="5"/>
-      <c r="Y113" s="5"/>
+      <c r="Y113" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="Z113" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA113" s="5"/>
       <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-      <c r="AD113" s="6"/>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AC113" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD113" s="5"/>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="4">
         <v>3</v>
@@ -9062,64 +9111,64 @@
         <v>5</v>
       </c>
       <c r="D114" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
+      <c r="I114" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J114" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M114" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N114" s="5"/>
-      <c r="O114" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O114" s="5"/>
       <c r="P114" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q114" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
       <c r="S114" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T114" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="T114" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="U114" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="X114" s="6"/>
-      <c r="Y114" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="V114" s="6"/>
+      <c r="W114" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="X114" s="5"/>
+      <c r="Y114" s="5"/>
       <c r="Z114" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AA114" s="5"/>
-      <c r="AB114" s="6"/>
+      <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
-      <c r="AD114" s="5"/>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD114" s="6"/>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="4">
         <v>3</v>
@@ -9128,64 +9177,64 @@
         <v>5</v>
       </c>
       <c r="D115" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F115" s="5"/>
-      <c r="G115" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I115" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="5"/>
-      <c r="K115" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L115" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K115" s="5"/>
+      <c r="L115" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="M115" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N115" s="5"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="5"/>
+      <c r="O115" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P115" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="Q115" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R115" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="R115" s="5"/>
       <c r="S115" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T115" s="6"/>
-      <c r="U115" s="5"/>
-      <c r="V115" s="6"/>
-      <c r="W115" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="X115" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Y115" s="5" t="s">
-        <v>160</v>
+        <v>20</v>
+      </c>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="X115" s="6"/>
+      <c r="Y115" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="Z115" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AA115" s="5"/>
-      <c r="AB115" s="5"/>
+      <c r="AB115" s="6"/>
       <c r="AC115" s="5"/>
       <c r="AD115" s="5"/>
     </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="4">
         <v>3</v>
@@ -9194,64 +9243,64 @@
         <v>5</v>
       </c>
       <c r="D116" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K116" s="5"/>
-      <c r="L116" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J116" s="5"/>
+      <c r="K116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L116" s="5"/>
       <c r="M116" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N116" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O116" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R116" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="R116" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="S116" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T116" s="6"/>
       <c r="U116" s="5"/>
-      <c r="V116" s="5"/>
-      <c r="W116" s="6"/>
-      <c r="X116" s="5"/>
-      <c r="Y116" s="6"/>
-      <c r="Z116" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA116" s="6"/>
-      <c r="AB116" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC116" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD116" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="V116" s="6"/>
+      <c r="W116" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="X116" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y116" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z116" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA116" s="5"/>
+      <c r="AB116" s="5"/>
+      <c r="AC116" s="5"/>
+      <c r="AD116" s="5"/>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="4">
         <v>3</v>
@@ -9260,64 +9309,64 @@
         <v>5</v>
       </c>
       <c r="D117" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F117" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
-      <c r="I117" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="I117" s="5"/>
       <c r="J117" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K117" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="K117" s="5"/>
       <c r="L117" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M117" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N117" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O117" s="5"/>
-      <c r="P117" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q117" s="5"/>
+      <c r="O117" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="R117" s="5"/>
       <c r="S117" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T117" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="T117" s="6"/>
       <c r="U117" s="5"/>
-      <c r="V117" s="6"/>
-      <c r="W117" s="5"/>
+      <c r="V117" s="5"/>
+      <c r="W117" s="6"/>
       <c r="X117" s="5"/>
-      <c r="Y117" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z117" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AA117" s="5"/>
-      <c r="AB117" s="6" t="s">
-        <v>161</v>
+      <c r="Y117" s="6"/>
+      <c r="Z117" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="AC117" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="AD117" s="5"/>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD117" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="4">
         <v>3</v>
@@ -9326,64 +9375,64 @@
         <v>5</v>
       </c>
       <c r="D118" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F118" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F118" s="5"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K118" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="K118" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="L118" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M118" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="N118" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O118" s="5"/>
       <c r="P118" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q118" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T118" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="T118" s="5"/>
       <c r="U118" s="5"/>
-      <c r="V118" s="5"/>
+      <c r="V118" s="6"/>
       <c r="W118" s="5"/>
-      <c r="X118" s="6"/>
-      <c r="Y118" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z118" s="6"/>
+      <c r="X118" s="5"/>
+      <c r="Y118" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z118" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="AA118" s="5"/>
       <c r="AB118" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AC118" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD118" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+      <c r="AD118" s="5"/>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="4">
         <v>3</v>
@@ -9392,64 +9441,64 @@
         <v>5</v>
       </c>
       <c r="D119" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G119" s="5"/>
-      <c r="H119" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="J119" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K119" s="5"/>
       <c r="L119" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M119" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N119" s="5"/>
-      <c r="O119" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M119" s="5"/>
+      <c r="N119" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O119" s="5"/>
       <c r="P119" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q119" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="Q119" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="R119" s="5"/>
       <c r="S119" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T119" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="T119" s="6"/>
       <c r="U119" s="5"/>
       <c r="V119" s="5"/>
       <c r="W119" s="5"/>
       <c r="X119" s="6"/>
       <c r="Y119" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="Z119" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA119" s="5" t="s">
-        <v>161</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="Z119" s="6"/>
+      <c r="AA119" s="5"/>
       <c r="AB119" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC119" s="5"/>
-      <c r="AD119" s="6"/>
-    </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+      <c r="AC119" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD119" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="4">
         <v>3</v>
@@ -9458,64 +9507,64 @@
         <v>5</v>
       </c>
       <c r="D120" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
+      <c r="H120" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
+      <c r="J120" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="K120" s="5"/>
       <c r="L120" s="6" t="s">
         <v>23</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N120" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N120" s="5"/>
       <c r="O120" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P120" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q120" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
       <c r="S120" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="T120" s="5"/>
       <c r="U120" s="5"/>
       <c r="V120" s="5"/>
       <c r="W120" s="5"/>
-      <c r="X120" s="5"/>
-      <c r="Y120" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z120" s="6"/>
+      <c r="X120" s="6"/>
+      <c r="Y120" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z120" s="6" t="s">
+        <v>160</v>
+      </c>
       <c r="AA120" s="5" t="s">
         <v>161</v>
       </c>
       <c r="AB120" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC120" s="6"/>
-      <c r="AD120" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+      <c r="AC120" s="5"/>
+      <c r="AD120" s="6"/>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="4">
         <v>3</v>
@@ -9524,64 +9573,64 @@
         <v>5</v>
       </c>
       <c r="D121" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>39</v>
+        <v>113</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="M121" s="6" t="s">
         <v>26</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O121" s="6" t="s">
         <v>25</v>
       </c>
       <c r="P121" s="6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q121" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="R121" s="5"/>
       <c r="S121" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
-      <c r="V121" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="V121" s="5"/>
       <c r="W121" s="5"/>
-      <c r="X121" s="6"/>
-      <c r="Y121" s="6"/>
-      <c r="Z121" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z121" s="6"/>
+      <c r="AA121" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="AB121" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="AC121" s="5"/>
-      <c r="AD121" s="6" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AC121" s="6"/>
+      <c r="AD121" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="4">
         <v>3</v>
@@ -9590,64 +9639,64 @@
         <v>5</v>
       </c>
       <c r="D122" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F122" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
-      <c r="I122" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J122" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K122" s="5"/>
-      <c r="L122" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L122" s="5"/>
       <c r="M122" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O122" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="O122" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P122" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q122" s="5"/>
-      <c r="R122" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Q122" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R122" s="5"/>
       <c r="S122" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="T122" s="5"/>
-      <c r="U122" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="V122" s="5"/>
-      <c r="W122" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="U122" s="5"/>
+      <c r="V122" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="W122" s="5"/>
       <c r="X122" s="6"/>
-      <c r="Y122" s="6" t="s">
-        <v>163</v>
-      </c>
+      <c r="Y122" s="6"/>
       <c r="Z122" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AA122" s="5"/>
-      <c r="AB122" s="5"/>
+      <c r="AB122" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="AC122" s="5"/>
-      <c r="AD122" s="6"/>
-    </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AD122" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="4">
         <v>3</v>
@@ -9656,47 +9705,49 @@
         <v>5</v>
       </c>
       <c r="D123" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="6" t="s">
         <v>22</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K123" s="5"/>
       <c r="L123" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M123" s="6" t="s">
         <v>23</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O123" s="5"/>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R123" s="5"/>
+      <c r="P123" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q123" s="5"/>
+      <c r="R123" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="S123" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="T123" s="5"/>
       <c r="U123" s="5" t="s">
         <v>160</v>
       </c>
       <c r="V123" s="5"/>
-      <c r="W123" s="6"/>
+      <c r="W123" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="X123" s="6"/>
       <c r="Y123" s="6" t="s">
         <v>163</v>
@@ -9705,15 +9756,13 @@
         <v>162</v>
       </c>
       <c r="AA123" s="5"/>
-      <c r="AB123" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="AB123" s="5"/>
       <c r="AC123" s="5"/>
       <c r="AD123" s="6"/>
     </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="4">
         <v>3</v>
@@ -9722,53 +9771,53 @@
         <v>5</v>
       </c>
       <c r="D124" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E124" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F124" s="5"/>
-      <c r="G124" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H124" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I124" s="5"/>
-      <c r="J124" s="5"/>
-      <c r="K124" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="L124" s="5"/>
-      <c r="M124" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J124" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K124" s="5"/>
+      <c r="L124" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="N124" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O124" s="6" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R124" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="R124" s="5"/>
       <c r="S124" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="T124" s="5"/>
-      <c r="U124" s="6"/>
-      <c r="V124" s="5" t="s">
-        <v>162</v>
-      </c>
+      <c r="U124" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="V124" s="5"/>
       <c r="W124" s="6"/>
-      <c r="X124" s="5"/>
-      <c r="Y124" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z124" s="6" t="s">
-        <v>163</v>
+      <c r="X124" s="6"/>
+      <c r="Y124" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z124" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="AA124" s="5"/>
       <c r="AB124" s="5" t="s">
@@ -9777,9 +9826,9 @@
       <c r="AC124" s="5"/>
       <c r="AD124" s="6"/>
     </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="4">
         <v>3</v>
@@ -9788,64 +9837,64 @@
         <v>5</v>
       </c>
       <c r="D125" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J125" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K125" s="5"/>
-      <c r="L125" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M125" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="N125" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="F125" s="5"/>
+      <c r="G125" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L125" s="5"/>
+      <c r="M125" s="5"/>
+      <c r="N125" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="O125" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
+      <c r="Q125" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="R125" s="6" t="s">
         <v>25</v>
       </c>
       <c r="S125" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T125" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="U125" s="5"/>
-      <c r="V125" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="T125" s="5"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="W125" s="6"/>
       <c r="X125" s="5"/>
       <c r="Y125" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="Z125" s="6"/>
+      <c r="Z125" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="AA125" s="5"/>
       <c r="AB125" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AC125" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AD125" s="5"/>
-    </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AC125" s="5"/>
+      <c r="AD125" s="6"/>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="4">
         <v>3</v>
@@ -9854,64 +9903,64 @@
         <v>5</v>
       </c>
       <c r="D126" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E126" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F126" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K126" s="5"/>
       <c r="L126" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M126" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N126" s="6" t="s">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N126" s="5"/>
       <c r="O126" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P126" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
-      <c r="R126" s="5"/>
+      <c r="R126" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="S126" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T126" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="T126" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="U126" s="5"/>
       <c r="V126" s="5"/>
-      <c r="W126" s="5"/>
-      <c r="X126" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y126" s="6"/>
-      <c r="Z126" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="W126" s="6"/>
+      <c r="X126" s="5"/>
+      <c r="Y126" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z126" s="6"/>
       <c r="AA126" s="5"/>
-      <c r="AB126" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AC126" s="6"/>
-      <c r="AD126" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="AB126" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC126" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AD126" s="5"/>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="4">
         <v>3</v>
@@ -9920,17 +9969,17 @@
         <v>5</v>
       </c>
       <c r="D127" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
+      <c r="I127" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="J127" s="6" t="s">
         <v>21</v>
       </c>
@@ -9939,66 +9988,116 @@
         <v>27</v>
       </c>
       <c r="M127" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="O127" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="O127" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="P127" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q127" s="6" t="s">
-        <v>22</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
       <c r="S127" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T127" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="T127" s="5"/>
       <c r="U127" s="5"/>
       <c r="V127" s="5"/>
       <c r="W127" s="5"/>
-      <c r="X127" s="5"/>
+      <c r="X127" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="Y127" s="6"/>
       <c r="Z127" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AA127" s="5"/>
       <c r="AB127" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AC127" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AD127" s="5"/>
+        <v>163</v>
+      </c>
+      <c r="AC127" s="6"/>
+      <c r="AD127" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>126</v>
+      </c>
+      <c r="B128" s="4">
+        <v>3</v>
+      </c>
+      <c r="C128" s="4">
+        <v>5</v>
+      </c>
+      <c r="D128" s="4">
+        <v>25</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K128" s="5"/>
+      <c r="L128" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O128" s="5"/>
+      <c r="P128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q128" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R128" s="5"/>
+      <c r="S128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T128" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="U128" s="5"/>
+      <c r="V128" s="5"/>
+      <c r="W128" s="5"/>
+      <c r="X128" s="5"/>
+      <c r="Y128" s="6"/>
+      <c r="Z128" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA128" s="5"/>
+      <c r="AB128" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC128" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AD128" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="18f1da54-7083-4d9c-bbfb-647d4971956c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x01010096A85016B378824092719B895C3D51CB" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="f3ecd7a73ec8a6a8b78e2474ae27f55d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18f1da54-7083-4d9c-bbfb-647d4971956c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="782430077250122d865c3f6c500e1e00" ns3:_="">
     <xsd:import namespace="18f1da54-7083-4d9c-bbfb-647d4971956c"/>
@@ -10198,10 +10297,37 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="18f1da54-7083-4d9c-bbfb-647d4971956c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1AC9BDE-6A3C-4CE9-BCFA-CDDCAC9960A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6838DB0E-4ED3-4465-9109-1BE4532A10AA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18f1da54-7083-4d9c-bbfb-647d4971956c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10223,19 +10349,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6838DB0E-4ED3-4465-9109-1BE4532A10AA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1AC9BDE-6A3C-4CE9-BCFA-CDDCAC9960A4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18f1da54-7083-4d9c-bbfb-647d4971956c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>